--- a/LOGS/5b28ac7e-c786-437d-868f-4f98faba13ac/main_page_service_output/notes_standard_cropped_df.xlsx
+++ b/LOGS/5b28ac7e-c786-437d-868f-4f98faba13ac/main_page_service_output/notes_standard_cropped_df.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="83">
   <si>
     <t>line_item_0</t>
   </si>
@@ -278,6 +278,12 @@
   </si>
   <si>
     <t>3 Other income</t>
+  </si>
+  <si>
+    <t>Depreciation expense</t>
+  </si>
+  <si>
+    <t>4 Other Expenses</t>
   </si>
 </sst>
 </file>
@@ -1198,9 +1204,6 @@
       <c r="A2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
       <c r="C2">
         <v>1993</v>
       </c>
@@ -1216,9 +1219,6 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3">
@@ -1278,9 +1278,6 @@
       <c r="A6" t="s">
         <v>52</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
       <c r="C6">
         <v>2040</v>
       </c>
@@ -1296,9 +1293,6 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7">
@@ -3900,12 +3894,98 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2">
+        <v>1540</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3">
+        <v>1540</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4">
+        <v>1464</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5">
+        <v>1464</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5470,7 +5550,7 @@
         <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>1993</v>
@@ -5490,7 +5570,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>1993</v>
@@ -5670,7 +5750,7 @@
         <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18">
         <v>2040</v>
@@ -5690,7 +5770,7 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19">
         <v>2040</v>
